--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -44,7 +44,22 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:29 AM</t>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 2 August, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +269,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +281,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +689,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>96</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +736,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -44,22 +44,52 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
     <t>96.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:30 AM</t>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 2 August, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -717,42 +747,141 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>24</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>205.80000000000001</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>26</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>27</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>28</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +895,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -80,6 +80,27 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -89,7 +110,34 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:24 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 2 August, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -829,7 +877,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -846,42 +894,174 @@
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>28</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>205.80000000000001</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>27</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>28</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>31</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>341.80000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -910,10 +1090,30 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -137,7 +149,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:28 AM</t>
+    <t>Saturday, 2 August, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -877,7 +889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +899,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -927,7 +939,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -943,7 +955,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +965,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -969,31 +981,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1002,20 +1014,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1026,42 +1038,75 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>38</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>341.80000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>367.80000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -80,6 +89,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -149,7 +170,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:30 AM</t>
+    <t>Saturday, 2 August, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -873,7 +894,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -889,7 +910,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -899,11 +920,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -915,14 +936,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -988,7 +1009,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1005,7 +1026,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1027,18 +1048,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1047,66 +1068,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>367.80000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>46</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>45</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>505.31999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1247,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:32 AM</t>
+    <t>Saturday, 2 August, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -170,7 +179,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:34 AM</t>
+    <t>Saturday, 2 August, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,24 +1018,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,14 +1044,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1059,7 +1068,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1075,7 +1084,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1085,11 +1094,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1101,31 +1110,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1134,66 +1143,99 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
       </c>
-      <c t="s" r="Q17" s="12">
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>505.31999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>53</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>49</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>35</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>54</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>568.32000000000005</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1299,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -113,12 +125,24 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -164,10 +188,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -179,7 +203,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:39 AM</t>
+    <t>Saturday, 2 August, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,7 +910,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -896,14 +920,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -912,7 +936,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -929,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -969,7 +993,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,7 +1026,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1018,13 +1042,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1051,21 +1075,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1077,28 +1101,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1110,14 +1134,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1127,14 +1151,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,31 +1167,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1183,13 +1207,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1204,38 +1228,104 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>568.32000000000005</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>40</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>57</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>752.91999999999996</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1394,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -170,6 +170,24 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -203,7 +221,25 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:43 AM</t>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Saturday, 2 August, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1243,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1224,7 +1260,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1240,24 +1276,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,66 +1302,198 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>752.91999999999996</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>63</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c t="s" r="Q21" s="12">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>63</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>40</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>40</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>40</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>903.70000000000005</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1572,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:55 AM</t>
+    <t>Saturday, 2 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 11:11 AM</t>
+    <t>Saturday, 2 August, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -239,7 +248,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 11:13 AM</t>
+    <t>Saturday, 2 August, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -946,7 +955,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -956,14 +965,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -972,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -996,7 +1005,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,7 +1038,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1045,7 +1054,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1080,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,14 +1097,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1104,31 +1113,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1137,20 +1146,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1161,7 +1170,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1177,13 +1186,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1194,7 +1203,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1210,7 +1219,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1236,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1260,7 +1269,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1276,7 +1285,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1309,7 +1318,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1326,7 +1335,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1342,24 +1351,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,31 +1377,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1408,21 +1417,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1434,66 +1443,99 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>903.70000000000005</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>43</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>77</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>78</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1008.7000000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1634,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 11:14 AM</t>
+    <t>Saturday, 2 August, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
@@ -164,9 +176,6 @@
     <t>112.00</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>OFRAMAX 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -179,6 +188,18 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -209,9 +230,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -248,7 +266,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 11:18 AM</t>
+    <t>Saturday, 2 August, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,21 +1204,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1212,31 +1230,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1266,10 +1284,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1302,7 +1320,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1318,7 +1336,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1346,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1379,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,20 +1395,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1401,7 +1419,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,28 +1428,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1443,14 +1461,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1493,49 +1511,115 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1008.7000000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>43</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>84</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>43</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1083.7000000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1723,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -80,6 +80,12 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -101,6 +107,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -152,9 +170,6 @@
     <t>FUCIDIN 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -176,6 +191,18 @@
     <t>112.00</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>OFRAMAX 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -233,10 +260,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -266,7 +290,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:09 PM</t>
+    <t>Saturday, 2 August, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,7 +1030,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1016,11 +1040,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1032,14 +1056,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1049,14 +1073,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1065,7 +1089,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1082,14 +1106,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1098,14 +1122,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1115,14 +1139,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1131,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1148,11 +1172,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1164,28 +1188,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1197,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,11 +1238,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1230,31 +1254,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1263,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1280,14 +1304,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1303,21 +1327,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1329,14 +1353,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,14 +1370,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1362,14 +1386,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1379,11 +1403,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1395,14 +1419,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,14 +1436,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1428,14 +1452,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1468,13 +1492,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1485,7 +1509,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1494,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1527,28 +1551,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1560,66 +1584,165 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1083.7000000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>33</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>49</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>85</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>87</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>88</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>49</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>92</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>49</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1170.26</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>93</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>94</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>95</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1856,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:14 PM</t>
+    <t>Saturday, 2 August, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:22 PM</t>
+    <t>Saturday, 2 August, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1501,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1525,7 +1534,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1558,7 +1567,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1591,13 +1600,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1608,7 +1617,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,7 +1650,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1667,11 +1676,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1700,49 +1709,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1170.26</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>49</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>92</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>94</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>95</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1221.26</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1871,10 +1913,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -299,7 +308,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:24 PM</t>
+    <t>Saturday, 2 August, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1477,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1518,7 +1527,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,7 +1543,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1567,7 +1576,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1600,7 +1609,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1617,7 +1626,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1633,13 +1642,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1650,7 +1659,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,7 +1692,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1699,7 +1708,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1742,49 +1751,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1221.26</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>49</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>95</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>97</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>98</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1346.26</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1960,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -107,12 +107,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>14.00</t>
   </si>
   <si>
@@ -170,12 +179,6 @@
     <t>FUCIDIN 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
@@ -272,12 +275,21 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8455:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -290,6 +302,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -308,7 +332,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:34 PM</t>
+    <t>Saturday, 2 August, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1204,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1213,7 +1237,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1223,14 +1247,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,14 +1263,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1256,14 +1280,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1272,31 +1296,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1305,20 +1329,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1329,7 +1353,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1345,21 +1369,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1371,31 +1395,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,11 +1445,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1437,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1487,11 +1511,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,11 +1544,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,14 +1577,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,14 +1593,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,11 +1610,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1602,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1619,11 +1643,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,31 +1692,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,28 +1725,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1734,31 +1758,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1767,20 +1791,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1795,38 +1819,137 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1346.26</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>33</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>98</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c t="s" r="Q33" s="12">
         <v>100</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>102</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>52</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>106</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>52</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>103</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1412.26</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2088,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:36 PM</t>
+    <t>Saturday, 2 August, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALEJON WHITENING CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -108,9 +120,6 @@
   </si>
   <si>
     <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>56.00</t>
@@ -1006,7 +1015,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1023,7 +1032,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1032,14 +1041,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1049,14 +1058,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1065,14 +1074,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1082,14 +1091,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1098,14 +1107,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1115,14 +1124,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1138,7 +1147,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1148,11 +1157,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1188,7 +1197,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1204,7 +1213,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1221,7 +1230,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,7 +1263,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1270,7 +1279,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1280,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1296,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1329,28 +1338,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1362,31 +1371,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,7 +1404,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1408,18 +1417,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1441,7 +1450,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1449,7 +1458,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1461,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1482,10 +1491,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1551,7 +1560,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1567,7 +1576,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1633,7 +1642,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1650,7 +1659,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1666,7 +1675,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1683,7 +1692,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1699,7 +1708,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1716,7 +1725,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1732,7 +1741,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1751,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,31 +1767,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,31 +1800,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1831,13 +1840,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1848,7 +1857,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,31 +1866,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,66 +1899,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1412.26</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>109</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>55</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>106</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>107</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>108</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>109</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1687.26</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2145,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:52 PM</t>
+    <t>Saturday, 2 August, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -341,7 +341,16 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 1:21 PM</t>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 2 August, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,38 +1969,71 @@
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1687.26</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>103</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>55</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>111</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1722.26</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>113</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>114</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2192,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -299,7 +299,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -350,7 +353,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 1:31 PM</t>
+    <t>Saturday, 2 August, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1833,7 +1836,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,7 +1845,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1859,11 +1862,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1892,14 +1895,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,14 +1911,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2003,13 +2006,13 @@
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="P38" s="13">
-        <v>1722.26</v>
+        <v>1736.26</v>
       </c>
       <c r="Q38" s="13"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c t="s" r="A39" s="14">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2017,13 +2020,13 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c t="s" r="G39" s="15">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
       <c t="s" r="K39" s="17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -353,7 +362,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 1:32 PM</t>
+    <t>Saturday, 2 August, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1762,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1770,7 +1779,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,7 +1795,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,11 +1805,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1812,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,7 +1911,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1977,14 +1986,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1994,49 +2003,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1736.26</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>114</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>107</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>55</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>115</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1747.71</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>117</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>118</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2200,10 +2242,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>112.00</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>OFRAMAX 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -251,9 +269,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -266,6 +281,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -275,6 +299,15 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -293,6 +326,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -362,7 +404,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 1:43 PM</t>
+    <t>Saturday, 2 August, 2025 1:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1573,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1583,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1599,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,14 +1616,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,14 +1632,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,14 +1649,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1665,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,11 +1682,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1656,14 +1698,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1715,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1731,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1713,7 +1755,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1729,7 +1771,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,11 +1781,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1755,14 +1797,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,11 +1814,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1788,14 +1830,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1805,11 +1847,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1821,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,14 +1880,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,7 +1929,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1900,18 +1942,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,31 +1962,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,14 +1995,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1970,11 +2012,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1986,20 +2028,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2019,14 +2061,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2036,49 +2078,214 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>55</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>116</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1747.71</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>118</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>55</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>119</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>123</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>55</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>55</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>124</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>121</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>55</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2010.1600000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>131</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>132</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>133</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2454,35 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -404,7 +404,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 1:46 PM</t>
+    <t>Saturday, 2 August, 2025 2:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -335,6 +347,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -362,7 +386,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -374,9 +401,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -404,7 +428,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 2:15 PM</t>
+    <t>Saturday, 2 August, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1267,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1253,11 +1277,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1269,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1286,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1302,7 +1326,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1319,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1335,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1352,11 +1376,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1368,14 +1392,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1392,7 +1416,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,7 +1449,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1447,18 +1471,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1467,31 +1491,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1500,28 +1524,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1533,31 +1557,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1566,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1599,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1623,7 +1647,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1639,7 +1663,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1649,11 +1673,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1665,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1689,7 +1713,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1705,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1715,11 +1739,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1771,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,11 +1838,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,28 +1920,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1929,28 +1953,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1979,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,28 +2019,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2028,20 +2052,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2068,24 +2092,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,28 +2118,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2127,7 +2151,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2140,18 +2164,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,20 +2184,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2184,7 +2208,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2193,31 +2217,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2226,66 +2250,132 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2010.1600000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>131</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>135</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>59</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>132</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>126</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>59</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2042.99</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2479,10 +2569,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 3:07 PM</t>
+    <t>Saturday, 2 August, 2025 4:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2233,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2257,7 +2266,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,11 +2309,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2333,49 +2342,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2042.99</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>139</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>126</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>59</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>140</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2049.9899999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>142</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>143</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>144</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2621,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 4:27 PM</t>
+    <t>Saturday, 2 August, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>70.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>TRUZYM TAB</t>
@@ -2068,13 +2077,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2085,7 +2094,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2101,24 +2110,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,49 +2384,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2049.9899999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>142</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>129</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>59</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>143</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2072.9899999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>145</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2626,10 +2668,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -356,6 +356,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -437,6 +443,12 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -446,7 +458,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 4:51 PM</t>
+    <t>Saturday, 2 August, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,31 +2214,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,7 +2247,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2384,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2407,7 +2419,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,49 +2429,115 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2072.9899999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>59</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>51</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>146</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>131</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>59</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>147</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2278.9899999999998</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>150</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>151</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2673,10 +2751,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 4:52 PM</t>
+    <t>Saturday, 2 August, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -344,9 +353,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -458,7 +464,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 5:02 PM</t>
+    <t>Saturday, 2 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1699,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1703,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1759,7 +1765,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,14 +1775,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1791,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1825,7 +1831,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1835,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1884,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,7 +1907,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1924,7 +1930,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1941,7 +1947,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1974,7 +1980,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1990,17 +1996,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2023,17 +2029,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2056,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2073,7 +2079,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,7 +2095,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2106,7 +2112,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,13 +2128,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2136,10 +2142,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,28 +2154,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,31 +2253,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,7 +2286,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,11 +2435,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2452,7 +2458,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,11 +2468,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2485,7 +2491,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,49 +2501,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>148</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2278.9899999999998</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>133</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>59</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>149</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2301.9899999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>151</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>152</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>153</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2761,10 +2800,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>112.00</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -227,10 +239,13 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -410,9 +425,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -458,13 +470,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 2 August, 2025 5:24 PM</t>
+    <t>Saturday, 2 August, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1672,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,11 +1682,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,11 +1715,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1725,14 +1731,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1748,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,7 +1764,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1775,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1863,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,11 +1880,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1913,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1947,7 +1953,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1963,7 +1969,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2022,31 +2028,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,11 +2078,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2088,31 +2094,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,11 +2144,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2161,13 +2167,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2194,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,14 +2210,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2227,24 +2233,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,11 +2276,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2286,31 +2292,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,14 +2358,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,7 +2391,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2402,14 +2408,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>133</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2475,7 +2481,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,14 +2490,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2501,7 +2507,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2524,7 +2530,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2534,49 +2540,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>150</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2301.9899999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>59</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>51</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>152</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>69</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>59</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>77</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2359.9899999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>153</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>154</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>155</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2805,10 +2877,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -83,6 +95,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -398,22 +422,22 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8455:0</t>
+    <t>8453:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -422,9 +446,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -470,7 +491,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 5:32 PM</t>
+    <t>Saturday, 2 August, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1165,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1154,14 +1175,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1170,7 +1191,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1187,14 +1208,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1203,7 +1224,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1220,14 +1241,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1236,14 +1257,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,11 +1274,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1269,14 +1290,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1286,14 +1307,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1302,14 +1323,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1319,14 +1340,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1335,14 +1356,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1359,7 +1380,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1375,7 +1396,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1406,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1422,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1439,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1434,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,11 +1472,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1467,14 +1488,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1491,7 +1512,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1507,7 +1528,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1517,11 +1538,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1533,31 +1554,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1587,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,11 +1604,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1599,31 +1620,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1632,14 +1653,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,14 +1670,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,28 +1686,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1698,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1715,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1738,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,11 +1769,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1764,7 +1785,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1781,11 +1802,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1797,14 +1818,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1835,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,7 +1875,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,7 +1908,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1903,7 +1924,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1920,7 +1941,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1969,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2099,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,31 +2115,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,31 +2214,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2239,7 +2260,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2250,7 +2271,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2266,7 +2287,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,11 +2297,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2313,10 +2334,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,28 +2346,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2358,31 +2379,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,31 +2412,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,31 +2445,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,7 +2478,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2470,18 +2491,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,31 +2511,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,20 +2544,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2556,31 +2577,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2589,66 +2610,165 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2359.9899999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>155</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>156</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>66</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>153</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>155</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>66</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>58</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>76</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>66</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>84</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2538.4699999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>160</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>161</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>162</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2887,10 +3007,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -119,10 +119,22 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>85.00</t>
@@ -143,6 +155,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -236,6 +257,18 @@
     <t>112.00</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -404,9 +437,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -434,9 +464,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>17:0</t>
   </si>
   <si>
@@ -491,7 +518,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 5:56 PM</t>
+    <t>Saturday, 2 August, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1380,7 +1407,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1413,7 +1440,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1429,7 +1456,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1439,11 +1466,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1455,14 +1482,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1472,11 +1499,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1488,14 +1515,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1505,14 +1532,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1521,14 +1548,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1538,11 +1565,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1554,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1578,7 +1605,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1594,7 +1621,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,11 +1631,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1620,28 +1647,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1653,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,11 +1697,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1686,31 +1713,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1719,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,28 +1779,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1785,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1825,7 +1852,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,11 +1895,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1990,7 +2017,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2040,7 +2067,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2056,7 +2083,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2214,31 +2241,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,28 +2340,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2346,7 +2373,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2359,18 +2386,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2445,31 +2472,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,20 +2538,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2532,10 +2559,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,31 +2571,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,7 +2604,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2590,18 +2617,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,20 +2637,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2631,10 +2658,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2643,28 +2670,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2683,24 +2710,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2709,66 +2736,165 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2538.4699999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>160</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>161</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>165</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>73</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>162</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>166</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>73</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>65</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>168</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>87</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>73</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>95</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2659.5900000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>169</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>170</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>171</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3022,10 +3148,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>137.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -272,9 +284,6 @@
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>OFRAMAX 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -359,7 +377,7 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>PETRO 30 TAB</t>
@@ -458,13 +476,19 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -518,7 +542,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:18 PM</t>
+    <t>Saturday, 2 August, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1348,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1334,14 +1358,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1350,7 +1374,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1367,14 +1391,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1383,14 +1407,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1400,14 +1424,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,7 +1464,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,7 +1497,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1489,7 +1513,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,14 +1523,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,7 +1539,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1532,14 +1556,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1565,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1581,7 +1605,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1598,11 +1622,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1614,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1647,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1671,7 +1695,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,7 +1728,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,18 +1750,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,31 +1770,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,28 +1803,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1812,31 +1836,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1845,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1902,7 +1926,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1918,7 +1942,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1951,7 +1975,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,11 +1985,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,11 +2018,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2017,7 +2041,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2083,7 +2107,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2117,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,11 +2183,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2215,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,11 +2282,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2347,24 +2371,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2413,24 +2437,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2446,7 +2470,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2460,7 +2484,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2472,28 +2496,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2538,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,31 +2628,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2644,24 +2668,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,28 +2694,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2703,7 +2727,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2716,18 +2740,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>87</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2743,24 +2767,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,28 +2793,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2802,31 +2826,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2842,59 +2866,158 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2659.5900000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>169</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>173</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>77</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>170</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>171</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>77</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>69</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>32</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>77</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>98</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2835.5900000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>177</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>178</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>179</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3163,10 +3286,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:19 PM</t>
+    <t>Saturday, 2 August, 2025 6:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>Saturday, 2 August, 2025 6:20 PM</t>
@@ -2986,38 +2995,71 @@
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2835.5900000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>177</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>72</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>77</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>178</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>179</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2865.5900000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>180</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>181</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>182</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3301,10 +3343,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:20 PM</t>
+    <t>Saturday, 2 August, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>LAMIFEN 250MG 14 TAB</t>
@@ -1885,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1951,7 +1963,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,11 +2039,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2100,7 +2112,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2116,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2142,7 +2154,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2159,11 +2171,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2199,7 +2211,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2215,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2281,7 +2293,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,28 +2451,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2472,28 +2484,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,31 +2583,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,28 +2616,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2691,10 +2703,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,31 +2748,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,7 +2781,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2892,7 +2904,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,7 +2963,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3017,49 +3029,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2865.5900000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>180</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>72</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>77</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>182</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2887.5900000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>184</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>185</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>186</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3348,10 +3393,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:22 PM</t>
+    <t>Saturday, 2 August, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -374,6 +374,18 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -440,15 +452,18 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>TEDDIFLY SYRUP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -500,7 +515,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -563,7 +581,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:23 PM</t>
+    <t>Saturday, 2 August, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2310,7 +2328,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,11 +2453,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,28 +2502,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2517,28 +2535,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2550,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2585,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,31 +2601,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,28 +2634,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2656,7 +2674,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,20 +2700,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2706,7 +2724,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2722,7 +2740,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,31 +2799,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2821,13 +2839,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2835,10 +2853,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,7 +2898,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2897,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2920,7 +2938,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2986,7 +3004,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3062,49 +3080,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2887.5900000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>184</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>185</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>186</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>32</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>77</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>102</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>72</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>77</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>188</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2993.5900000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>190</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>191</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>192</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3398,10 +3482,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -581,7 +581,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:24 PM</t>
+    <t>Saturday, 2 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -236,6 +248,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
@@ -386,6 +407,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -482,6 +509,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -581,7 +611,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:27 PM</t>
+    <t>Saturday, 2 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1585,7 +1615,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1625,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,7 +1641,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1628,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1644,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1691,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,7 +1707,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1694,11 +1724,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1710,14 +1740,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1727,11 +1757,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1743,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1767,7 +1797,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,7 +1830,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1822,18 +1852,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1889,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,31 +1905,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,11 +1955,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1948,13 +1978,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1962,10 +1992,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2047,7 +2077,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2120,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2106,7 +2136,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2123,11 +2153,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,7 +2226,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2212,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2262,7 +2292,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2278,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2295,7 +2325,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,7 +2358,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2344,7 +2374,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2443,7 +2473,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,11 +2516,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,11 +2549,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2535,31 +2565,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2575,7 +2605,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2592,7 +2622,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2608,13 +2638,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2625,7 +2655,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2641,24 +2671,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2700,7 +2730,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2713,15 +2743,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2783,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2799,20 +2829,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2820,10 +2850,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,11 +2879,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2865,7 +2895,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2878,18 +2908,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,31 +2928,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,20 +2961,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2952,10 +2982,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,31 +2994,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,31 +3027,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,31 +3060,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,28 +3093,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3096,31 +3126,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3129,66 +3159,198 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2993.5900000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>84</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>190</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>192</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>84</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>73</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>32</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>84</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>109</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>76</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>84</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>198</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3118.4299999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>200</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>201</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>202</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3492,10 +3654,30 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -611,7 +620,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:29 PM</t>
+    <t>Saturday, 2 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2506,7 +2515,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,11 +2624,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2638,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2655,7 +2664,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2671,17 +2680,17 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2704,17 +2713,17 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2743,7 +2752,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2754,7 +2763,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2770,21 +2779,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,31 +2838,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2869,21 +2878,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3001,7 +3010,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3034,24 +3043,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3133,7 +3142,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3150,7 +3159,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3166,7 +3175,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,11 +3251,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3308,49 +3317,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3118.4299999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>76</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>84</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>201</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3142.4299999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3674,10 +3716,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:30 PM</t>
+    <t>Saturday, 2 August, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -365,6 +374,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -440,6 +461,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -620,7 +647,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:38 PM</t>
+    <t>Saturday, 2 August, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2169,7 +2196,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,7 +2212,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2222,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2251,7 +2278,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2350,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2383,7 +2410,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2400,7 +2427,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,7 +2460,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2449,7 +2476,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,11 +2486,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,11 +2552,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2548,7 +2575,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,11 +2585,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2651,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2706,31 +2733,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2746,7 +2773,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2763,7 +2790,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2779,13 +2806,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2796,7 +2823,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2812,24 +2839,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,11 +2882,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2871,7 +2898,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2888,11 +2915,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,11 +2948,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +2997,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,11 +3080,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3069,31 +3096,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>182</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3109,24 +3136,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,28 +3162,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,7 +3195,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3185,14 +3212,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3222,10 +3249,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3278,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3274,7 +3301,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,14 +3311,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3317,11 +3344,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3350,49 +3377,148 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3142.4299999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>203</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>204</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>205</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>16</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>84</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>73</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>32</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>84</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>112</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>76</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>84</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>210</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3151.7800000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>212</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>213</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +3847,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:50 PM</t>
+    <t>Saturday, 2 August, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -146,13 +146,13 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
+    <t>170.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -302,6 +302,15 @@
     <t>112.00</t>
   </si>
   <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -500,9 +509,6 @@
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>20.7900</t>
   </si>
   <si>
@@ -581,10 +587,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -647,7 +653,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:53 PM</t>
+    <t>Saturday, 2 August, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1602,7 +1608,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2113,7 +2119,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2163,7 +2169,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2179,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2196,7 +2202,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2229,7 +2235,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2245,7 +2251,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2255,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2288,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2311,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2321,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2377,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2394,7 +2400,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,7 +2449,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2509,7 +2515,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2641,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2740,7 +2746,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2806,7 +2812,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2823,7 +2829,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2839,17 +2845,17 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2872,21 +2878,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2898,7 +2904,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2911,18 +2917,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,28 +2937,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3004,13 +3010,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3018,10 +3024,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,28 +3036,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3183,10 +3189,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,31 +3201,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,7 +3234,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3268,7 +3274,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3282,10 +3288,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,14 +3350,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3400,7 +3406,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3410,11 +3416,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3433,7 +3439,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3443,11 +3449,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3476,49 +3482,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>211</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3151.7800000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>76</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>84</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>212</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3391.7800000000002</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>214</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>215</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>216</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3862,10 +3901,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:54 PM</t>
+    <t>Saturday, 2 August, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -65,27 +65,30 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>1:5</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>38.2200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -104,6 +107,15 @@
     <t>137.0000</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -167,6 +179,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -227,9 +251,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -560,21 +581,18 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8453:0</t>
+    <t>8452:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -587,10 +605,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -614,9 +632,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -653,7 +668,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 6:57 PM</t>
+    <t>Saturday, 2 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1377,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1386,7 +1401,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1419,7 +1434,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1436,11 +1451,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1492,7 +1507,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1502,14 +1517,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1518,7 +1533,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1535,14 +1550,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1583,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1608,7 +1623,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1641,7 +1656,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1674,7 +1689,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1690,7 +1705,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,14 +1715,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,11 +1781,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,11 +1847,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1921,7 +1936,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1938,7 +1953,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1960,18 +1975,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,31 +2028,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,11 +2078,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2086,13 +2101,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2100,10 +2115,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,11 +2144,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2185,7 +2200,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2218,7 +2233,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2310,7 +2325,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2327,11 +2342,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,7 +2415,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2416,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,7 +2481,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2515,7 +2530,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2532,7 +2547,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,7 +2580,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,11 +2606,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2672,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2680,7 +2695,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,11 +2705,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,7 +2787,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,31 +2886,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,31 +2952,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,31 +3018,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,28 +3051,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,7 +3117,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3115,15 +3130,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3208,7 +3223,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3249,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,13 +3289,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3288,10 +3303,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,7 +3348,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3346,18 +3361,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3373,21 +3388,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3399,31 +3414,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,28 +3447,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3465,28 +3480,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3498,66 +3513,132 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3391.7800000000002</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>214</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>215</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>36</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>91</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>122</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>216</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>83</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>91</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3527.3499999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3906,10 +3987,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -668,7 +677,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 7:06 PM</t>
+    <t>Saturday, 2 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2167,7 +2176,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2181,10 +2190,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2349,7 +2358,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2431,7 +2440,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2497,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2514,7 +2523,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2629,7 +2638,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,11 +2714,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2761,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2860,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2926,7 +2935,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2943,7 +2952,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2959,21 +2968,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2985,24 +2994,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3031,7 +3040,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3042,7 +3051,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,21 +3067,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3157,21 +3166,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,11 +3209,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3306,7 +3315,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3322,24 +3331,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3421,7 +3430,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3435,10 +3444,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3468,10 +3477,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,11 +3572,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,49 +3605,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3527.3499999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>219</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>83</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>91</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>220</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3594.3499999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>222</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>223</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>224</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3997,10 +4039,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 7:09 PM</t>
+    <t>Saturday, 2 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>60.0600</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -197,9 +218,6 @@
     <t>5:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -344,9 +362,6 @@
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -368,7 +383,13 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
   </si>
   <si>
     <t>MOBITIL 15MG 10 TAB.</t>
@@ -578,6 +599,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -614,10 +641,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -668,6 +695,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -677,7 +710,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 7:17 PM</t>
+    <t>Saturday, 2 August, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1533,7 +1566,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1549,7 +1582,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1559,14 +1592,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1575,7 +1608,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1592,14 +1625,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1608,14 +1641,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1625,14 +1658,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1665,7 +1698,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1681,7 +1714,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1691,14 +1724,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1707,14 +1740,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1724,14 +1757,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1740,14 +1773,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,11 +1790,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1773,14 +1806,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1797,7 +1830,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1813,7 +1846,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,7 +1856,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1846,7 +1879,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1879,7 +1912,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1896,7 +1929,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1912,7 +1945,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1945,7 +1978,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1962,7 +1995,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1978,7 +2011,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,11 +2021,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2004,14 +2037,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,11 +2054,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2037,31 +2070,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2110,24 +2143,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,14 +2169,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,11 +2186,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2169,28 +2202,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2223,10 +2256,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,11 +2285,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2289,7 +2322,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2301,14 +2334,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2318,11 +2351,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2351,11 +2384,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,11 +2417,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2450,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2440,7 +2473,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2457,7 +2490,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2473,7 +2506,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2549,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,11 +2615,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2648,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2697,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2714,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2747,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,11 +2780,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,11 +2846,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2869,7 +2902,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2886,7 +2919,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2902,7 +2935,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,11 +2945,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2968,7 +3001,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3001,24 +3034,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3077,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,31 +3093,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,31 +3126,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3133,7 +3166,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3147,7 +3180,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3159,7 +3192,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3172,15 +3205,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,11 +3242,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3225,14 +3258,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3275,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,31 +3291,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>153</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,11 +3374,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3357,7 +3390,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3370,18 +3403,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,31 +3423,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,31 +3456,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,31 +3489,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,31 +3522,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,31 +3555,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,28 +3588,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3588,31 +3621,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3628,59 +3661,224 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>224</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>97</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>221</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3594.3499999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>222</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>223</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>224</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>16</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>97</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>86</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>40</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>97</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>132</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>229</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>97</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>166</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>230</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>89</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>97</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3722.5300000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>233</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>234</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>235</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4044,10 +4242,35 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -638,6 +638,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -695,6 +704,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -710,7 +725,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 7:56 PM</t>
+    <t>Saturday, 2 August, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3529,24 +3544,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>40</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3628,7 +3643,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3642,10 +3657,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3675,10 +3690,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3737,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3770,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3836,49 +3851,115 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3722.5300000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>233</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>234</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>97</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>166</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>235</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>89</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>97</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>236</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3792.5300000000002</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>238</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>239</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>240</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4267,10 +4348,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -497,9 +509,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -509,12 +518,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
     <t>19:0</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:02 PM</t>
+    <t>Saturday, 2 August, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1438,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1442,14 +1448,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1482,7 +1488,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1491,14 +1497,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1508,14 +1514,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1524,14 +1530,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1541,11 +1547,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1557,14 +1563,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1581,7 +1587,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1614,7 +1620,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1630,7 +1636,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1640,14 +1646,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1656,7 +1662,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1673,14 +1679,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1729,7 +1735,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,14 +1745,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1755,14 +1761,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1779,7 +1785,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,7 +1818,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,7 +1851,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1871,14 +1877,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,7 +1926,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,7 +1992,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2003,11 +2009,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2042,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2109,7 +2115,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2131,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,31 +2157,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,31 +2190,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,28 +2223,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2250,20 +2256,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2290,7 +2296,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,7 +2421,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2637,7 +2643,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2719,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2736,7 +2742,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2775,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2835,7 +2841,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,11 +2900,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2917,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2950,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3131,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,31 +3147,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,31 +3180,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,7 +3213,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3220,18 +3226,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,28 +3246,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3280,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,31 +3312,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,31 +3345,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3412,7 +3418,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3445,7 +3451,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,31 +3576,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,7 +3609,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3616,18 +3622,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>40</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,31 +3642,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3675,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3708,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,28 +3741,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,28 +3774,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,28 +3807,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3841,21 +3847,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,28 +3873,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3900,66 +3906,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>236</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>12</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>101</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>136</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>237</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3792.5300000000002</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>93</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>101</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>238</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>239</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3851.5300000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
         <v>240</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>241</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>242</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4358,10 +4430,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALEJON WHITENING CREAM 50 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -131,249 +146,252 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>23.5200</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -407,9 +425,6 @@
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -503,9 +518,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -650,6 +662,27 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>68:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -665,6 +698,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -686,12 +722,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سلاكه اسنان خشب</t>
   </si>
   <si>
@@ -704,19 +734,22 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -731,7 +764,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:06 PM</t>
+    <t>Saturday, 2 August, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1488,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1464,14 +1497,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1481,14 +1514,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1497,14 +1530,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1514,14 +1547,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1530,14 +1563,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1547,14 +1580,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1563,14 +1596,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1580,14 +1613,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1596,14 +1629,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1613,14 +1646,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1629,14 +1662,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1653,7 +1686,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1669,7 +1702,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1679,14 +1712,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1695,14 +1728,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1712,14 +1745,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1728,14 +1761,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1745,14 +1778,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1768,7 +1801,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1785,7 +1818,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1801,7 +1834,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1811,14 +1844,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1827,14 +1860,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,14 +1877,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1860,14 +1893,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1877,14 +1910,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1893,14 +1926,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,14 +1943,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1926,14 +1959,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1959,14 +1992,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,14 +2009,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1992,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,14 +2042,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2025,14 +2058,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2075,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2091,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2108,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,14 +2124,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2141,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,14 +2157,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2190,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2190,31 +2223,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2223,14 +2256,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2273,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,20 +2289,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2280,7 +2313,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2296,7 +2329,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2339,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,31 +2355,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2388,14 +2421,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2412,7 +2445,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2442,10 +2475,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,14 +2504,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,14 +2520,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2508,10 +2541,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,14 +2570,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2593,7 +2626,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,14 +2669,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2956,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +2999,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2989,7 +3022,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,14 +3065,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3055,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3098,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3114,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3121,7 +3154,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3138,7 +3171,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3154,7 +3187,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3197,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,31 +3213,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,31 +3279,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,13 +3352,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3333,10 +3366,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,31 +3378,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3378,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,31 +3444,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3527,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3593,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,31 +3642,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,31 +3675,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,20 +3708,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3699,7 +3732,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3715,24 +3748,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,31 +3774,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3781,24 +3814,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,31 +3840,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,31 +3873,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,31 +3906,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3906,31 +3939,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3939,31 +3972,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3972,66 +4005,231 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3851.5300000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>240</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>241</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>242</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>48</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>105</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>141</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>113</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>105</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>223</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>244</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>245</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>105</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>29</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>247</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>18</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>105</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>141</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>248</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>97</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>105</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>249</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4101.7299999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>251</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>252</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>253</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4440,10 +4638,35 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -443,120 +452,120 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
     <t>3:3</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -686,10 +695,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -764,7 +770,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:12 PM</t>
+    <t>Saturday, 2 August, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1774,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1778,14 +1784,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1811,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1834,7 +1840,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1851,7 +1857,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1867,7 +1873,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1893,14 +1899,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1943,14 +1949,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1976,11 +1982,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>34</v>
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2009,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2032,7 +2038,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2042,14 +2048,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,7 +2088,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2098,7 +2104,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2115,7 +2121,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2164,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2197,7 +2203,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2214,7 +2220,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2230,7 +2236,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2280,7 +2286,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2296,21 +2302,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2322,31 +2328,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,28 +2361,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2395,21 +2401,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,10 +2481,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2527,7 +2533,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2537,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2577,7 +2583,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2593,7 +2599,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2607,10 +2613,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>34</v>
@@ -2659,7 +2665,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2702,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2758,7 +2764,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2808,7 +2814,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2824,7 +2830,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2841,7 +2847,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3121,7 +3127,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3154,7 +3160,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3168,7 +3174,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3270,7 +3276,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3286,21 +3292,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3312,24 +3318,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3358,7 +3364,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3369,7 +3375,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3385,21 +3391,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3444,31 +3450,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3484,24 +3490,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3666,7 +3672,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3682,7 +3688,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3699,7 +3705,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3715,24 +3721,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,28 +3747,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3781,24 +3787,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3820,18 +3826,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>117</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3840,31 +3846,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,31 +3879,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3913,24 +3919,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3952,15 +3958,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3979,21 +3985,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4012,21 +4018,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4038,28 +4044,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4071,28 +4077,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4104,31 +4110,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4137,31 +4143,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4170,66 +4176,99 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>250</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4101.7299999999996</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>100</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>108</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>251</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>252</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q92" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4214.3800000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>253</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>254</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>255</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4663,10 +4702,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:25 PM</t>
+    <t>Saturday, 2 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>TEDDIFLY SYRUP</t>
   </si>
   <si>
@@ -770,7 +788,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:31 PM</t>
+    <t>Saturday, 2 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2121,7 +2139,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2137,7 +2155,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2154,7 +2172,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2203,7 +2221,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2236,7 +2254,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2253,7 +2271,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2269,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2319,7 +2337,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2335,21 +2353,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2361,31 +2379,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2394,28 +2412,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2434,21 +2452,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2514,10 +2532,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2566,7 +2584,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2616,7 +2634,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2632,7 +2650,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2646,10 +2664,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,11 +2693,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2698,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,11 +2759,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,11 +2792,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2797,7 +2815,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2847,7 +2865,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2896,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2929,7 +2947,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2995,7 +3013,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3104,11 +3122,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3226,7 +3244,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,11 +3287,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3309,7 +3327,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3325,21 +3343,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3351,24 +3369,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3397,7 +3415,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3408,7 +3426,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3424,7 +3442,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3452,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3450,31 +3468,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,20 +3501,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3516,7 +3534,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3533,11 +3551,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3549,28 +3567,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3688,7 +3706,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3738,7 +3756,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3754,21 +3772,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3780,31 +3798,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,31 +3831,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,31 +3897,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3925,7 +3943,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3933,10 +3951,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,28 +3963,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3978,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,28 +4029,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4044,28 +4062,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4077,28 +4095,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4110,28 +4128,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4143,31 +4161,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4176,28 +4194,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4209,66 +4227,132 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4214.3800000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>253</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>254</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>255</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>18</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>111</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>147</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>256</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>103</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>111</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>257</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4395.3800000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>259</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>260</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>261</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4707,10 +4791,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -353,6 +365,15 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
     <t>FUCIDIN 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -743,9 +764,6 @@
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>سلاكه اسنان خشب</t>
   </si>
   <si>
@@ -758,6 +776,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -788,7 +815,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:32 PM</t>
+    <t>Saturday, 2 August, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,7 +1885,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1895,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1941,7 +1968,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2115,7 +2142,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2132,11 +2159,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2148,7 +2175,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2214,7 +2241,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2231,11 +2258,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2337,7 +2364,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2353,7 +2380,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,28 +2406,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2412,31 +2439,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,28 +2472,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2518,24 +2545,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,10 +2592,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2650,7 +2677,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2683,7 +2710,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,11 +2720,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2709,7 +2736,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2726,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,7 +2769,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2819,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,7 +2835,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2825,11 +2852,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,7 +2925,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2914,7 +2941,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2940,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2957,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3013,7 +3040,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3030,7 +3057,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,7 +3090,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,7 +3106,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,11 +3215,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3376,24 +3403,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3435,31 +3462,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,7 +3495,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3481,18 +3508,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3534,31 +3561,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,28 +3594,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3600,7 +3627,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3617,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3633,28 +3660,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3666,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3805,7 +3832,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3842,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,20 +3858,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3871,24 +3898,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3904,24 +3931,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,31 +3957,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,31 +3990,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4009,18 +4036,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,28 +4056,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4062,31 +4089,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,28 +4122,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4128,28 +4155,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4161,28 +4188,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4194,28 +4221,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4227,31 +4254,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4260,28 +4287,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4293,66 +4320,165 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4395.3800000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>259</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>260</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>261</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>262</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>115</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>29</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>18</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>115</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>154</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>265</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>107</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>115</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>266</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4586.1300000000001</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>268</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>269</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>270</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4801,10 +4927,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
   </si>
   <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
@@ -1862,14 +1868,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1885,7 +1891,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1895,11 +1901,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2010,14 +2016,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2027,14 +2033,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2060,14 +2066,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>34</v>
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2142,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2175,7 +2181,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2192,11 +2198,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2208,7 +2214,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2225,14 +2231,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2241,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2274,7 +2280,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2291,11 +2297,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2307,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2324,11 +2330,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2340,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2357,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2390,14 +2396,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2439,28 +2445,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>34</v>
@@ -2472,31 +2478,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2505,7 +2511,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2518,15 +2524,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2538,28 +2544,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2571,28 +2577,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2677,7 +2683,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2691,10 +2697,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2809,7 +2815,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2823,7 +2829,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2875,7 +2881,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2885,11 +2891,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,11 +3122,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,11 +3221,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3231,7 +3237,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3248,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3281,11 +3287,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3304,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3337,7 +3343,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3351,7 +3357,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,24 +3468,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3502,21 +3508,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>34</v>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,7 +3567,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3574,15 +3580,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3594,28 +3600,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3667,13 +3673,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3681,10 +3687,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3693,31 +3699,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3733,7 +3739,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,11 +3782,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3792,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,28 +3963,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3990,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4036,18 +4042,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,31 +4062,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4129,24 +4135,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,28 +4161,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4195,21 +4201,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4228,21 +4234,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4254,7 +4260,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4267,15 +4273,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4287,28 +4293,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4320,28 +4326,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4353,31 +4359,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4386,31 +4392,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4419,66 +4425,99 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>267</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4586.1300000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>109</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>117</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>268</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>269</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4655.4300000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>270</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>271</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>272</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4942,10 +4981,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -680,6 +680,18 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -707,6 +719,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -821,7 +842,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:37 PM</t>
+    <t>Saturday, 2 August, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3848,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>132</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3904,7 +3925,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3935,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,20 +3984,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3987,7 +4008,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4003,24 +4024,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4036,7 +4057,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,7 +4149,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4145,14 +4166,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,11 +4265,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4260,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,11 +4298,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4293,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4359,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4392,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4409,14 +4430,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4425,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4442,11 +4463,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4458,14 +4479,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4475,49 +4496,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4655.4300000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>270</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>271</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>272</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>18</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>117</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>156</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>274</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>109</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>117</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>275</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4806.4499999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>277</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>278</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>279</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4986,10 +5073,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -485,6 +497,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -821,6 +842,12 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -842,7 +869,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:50 PM</t>
+    <t>Saturday, 2 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1873,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,11 +1916,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>34</v>
@@ -1905,7 +1932,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1922,14 +1949,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1955,7 +1982,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1978,7 +2005,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2061,7 +2088,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2077,7 +2104,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,7 +2262,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2252,11 +2279,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2268,7 +2295,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,7 +2361,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2351,11 +2378,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,11 +2411,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2433,14 +2460,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2457,7 +2484,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2473,7 +2500,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,14 +2510,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,28 +2526,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2532,31 +2559,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,7 +2592,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2578,15 +2605,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2598,28 +2625,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2631,20 +2658,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2688,7 +2715,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2704,7 +2731,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2763,14 +2790,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2787,7 +2814,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2803,7 +2830,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,14 +2840,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2856,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2873,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -2895,14 +2922,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2928,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,11 +2972,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2961,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,11 +3005,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2994,14 +3021,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3018,7 +3045,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3034,13 +3061,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3067,7 +3094,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,7 +3120,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3110,11 +3137,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3126,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>174</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3166,7 +3193,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3183,7 +3210,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,7 +3243,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3232,7 +3259,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,11 +3269,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,11 +3335,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,11 +3368,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,7 +3450,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3529,24 +3556,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,11 +3599,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3588,31 +3615,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,7 +3648,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3634,18 +3661,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,11 +3698,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3687,31 +3714,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,28 +3747,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3753,7 +3780,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3770,11 +3797,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3786,28 +3813,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3819,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3896,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3885,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3991,7 +4018,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,20 +4077,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4074,7 +4101,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4090,24 +4117,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4123,24 +4150,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,31 +4176,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4209,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,7 +4242,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4228,18 +4255,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,28 +4275,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4281,31 +4308,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,28 +4341,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4347,28 +4374,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4380,28 +4407,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4413,28 +4440,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4446,28 +4473,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4479,31 +4506,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,28 +4539,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4545,66 +4572,165 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4806.4499999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>277</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>278</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>279</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>280</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>121</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>29</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>282</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>18</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>121</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>160</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>113</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>121</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>284</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4910.8900000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>286</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>287</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>288</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5083,10 +5209,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:53 PM</t>
+    <t>Saturday, 2 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:55 PM</t>
+    <t>Saturday, 2 August, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -80,78 +80,81 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>38.2200</t>
+    <t>50.7000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>23.5200</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
-  </si>
-  <si>
-    <t>137.00</t>
-  </si>
-  <si>
-    <t>137.0000</t>
-  </si>
-  <si>
-    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>23.5200</t>
-  </si>
-  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -206,6 +209,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -371,9 +380,6 @@
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -467,9 +473,6 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -779,10 +782,16 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>36:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -842,6 +851,9 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -854,9 +866,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -869,7 +878,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 8:57 PM</t>
+    <t>Saturday, 2 August, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1791,7 +1800,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1817,11 +1826,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1833,7 +1842,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>34</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>34</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1953,7 +1962,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>34</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1986,7 +1995,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2022,7 +2031,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2038,7 +2047,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2118,10 +2127,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>34</v>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2269,7 +2278,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2352,7 +2361,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2368,7 +2377,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2385,7 +2394,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2467,7 +2476,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2484,7 +2493,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2550,7 +2559,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2566,21 +2575,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2592,31 +2601,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,7 +2634,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2638,15 +2647,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2658,28 +2667,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2691,28 +2700,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2811,10 +2820,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2929,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,11 +3014,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3028,7 +3037,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,31 +3096,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3384,7 +3393,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3424,7 +3433,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,28 +3624,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3648,28 +3657,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3727,15 +3736,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3747,28 +3756,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3787,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,31 +3822,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3952,7 +3961,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>34</v>
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,28 +4185,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4209,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>257</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,7 +4317,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4321,18 +4330,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,28 +4350,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4381,24 +4390,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4414,21 +4423,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4440,28 +4449,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4473,28 +4482,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4506,28 +4515,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4539,28 +4548,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4572,28 +4581,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4612,24 +4621,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,28 +4647,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4671,66 +4680,165 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>284</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>123</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>29</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>285</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4910.8900000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>18</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>123</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>161</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>286</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>116</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>123</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
         <v>287</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>288</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>4989.3699999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>289</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>290</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>291</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5224,10 +5332,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -878,7 +878,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:07 PM</t>
+    <t>Saturday, 2 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -623,9 +641,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -878,7 +893,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:08 PM</t>
+    <t>Saturday, 2 August, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2524,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2542,7 +2557,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,14 +2567,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2592,7 +2607,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2608,21 +2623,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2634,20 +2649,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2658,7 +2673,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2680,15 +2695,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2700,28 +2715,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2740,21 +2755,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2820,10 +2835,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2872,7 +2887,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2897,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2922,7 +2937,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2938,7 +2953,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,11 +2996,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3004,7 +3019,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,11 +3062,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,11 +3095,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3103,13 +3118,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3120,7 +3135,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3136,24 +3151,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3186,7 +3201,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3202,7 +3217,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3235,7 +3250,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3268,7 +3283,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3334,7 +3349,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3425,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3443,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,11 +3491,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3492,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,11 +3524,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>34</v>
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,7 +3573,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3575,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,31 +3672,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3697,7 +3712,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3730,24 +3745,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,7 +3771,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3769,18 +3784,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,11 +3821,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3822,31 +3837,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,28 +3870,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3905,11 +3920,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3928,21 +3943,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3954,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,11 +4019,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4027,7 +4042,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4118,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4184,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,31 +4200,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,31 +4233,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,28 +4266,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4284,31 +4299,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,31 +4332,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,31 +4365,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,7 +4398,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4396,18 +4411,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4423,21 +4438,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4449,31 +4464,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,28 +4497,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4515,28 +4530,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4555,21 +4570,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4581,28 +4596,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4614,28 +4629,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4647,28 +4662,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4680,28 +4695,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4713,31 +4728,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4746,28 +4761,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4779,66 +4794,132 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4989.3699999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>289</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>290</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>18</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>126</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>164</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>291</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>119</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>126</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>292</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5050.9799999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>294</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>295</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>296</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5347,10 +5428,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CEFZIM 500MG VIAL</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -221,666 +230,681 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>TEDDIFLY SYRUP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8452:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>68:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>11.4500</t>
-  </si>
-  <si>
-    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>TEDDIFLY SYRUP</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8452:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>68:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 2</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>72.0000</t>
   </si>
   <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان خشب</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 2</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>شامبو الفيف 200 مل</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -893,7 +917,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:17 PM</t>
+    <t>Saturday, 2 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1947,7 +1971,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1963,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1973,11 +1997,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>34</v>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2063,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2062,7 +2086,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2072,14 +2096,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,7 +2136,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2128,7 +2152,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2142,10 +2166,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2175,10 +2199,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2204,14 +2228,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,11 +2294,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2359,7 +2383,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2385,7 +2409,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,11 +2459,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,11 +2525,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2607,7 +2631,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2623,7 +2647,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2656,13 +2680,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2673,7 +2697,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2689,13 +2713,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2706,7 +2730,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2722,24 +2746,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2748,28 +2772,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2798,11 +2822,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2821,24 +2845,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,10 +2892,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2930,11 +2954,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -2953,7 +2977,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2986,7 +3010,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,11 +3020,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,11 +3086,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3078,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3144,31 +3168,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,7 +3258,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3250,24 +3274,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3283,7 +3307,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3333,7 +3357,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3349,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3382,7 +3406,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3392,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,11 +3449,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,11 +3482,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3647,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3639,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3738,31 +3762,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3778,7 +3802,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3795,7 +3819,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3811,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3828,7 +3852,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3844,24 +3868,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3944,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,7 +3960,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3949,15 +3973,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3969,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,7 +4059,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4048,15 +4072,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4068,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4200,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4233,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,28 +4290,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4299,31 +4323,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,31 +4389,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>265</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4405,24 +4429,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4438,21 +4462,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4464,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4477,18 +4501,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>49</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,31 +4521,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,28 +4554,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4563,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,28 +4620,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4629,28 +4653,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4662,28 +4686,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4695,28 +4719,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4728,28 +4752,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4761,28 +4785,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4794,31 +4818,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4827,28 +4851,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4860,66 +4884,165 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5050.9799999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>294</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>295</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>296</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>133</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>29</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>298</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>18</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>133</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>174</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>299</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>126</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>133</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>300</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5287.9799999999996</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>302</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5438,10 +5561,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -191,6 +191,9 @@
     <t>CEFZIM 500MG VIAL</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -230,639 +233,639 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>TEDDIFLY SYRUP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRUZYM TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8452:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>68:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>11.4500</t>
-  </si>
-  <si>
-    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>TEDDIFLY SYRUP</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRUZYM TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8452:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>68:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>40:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان خشب</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 2</t>
   </si>
   <si>
@@ -917,7 +920,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:18 PM</t>
+    <t>Saturday, 2 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1957,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1964,11 +1967,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>28</v>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>34</v>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2034,7 +2037,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>34</v>
@@ -2046,7 +2049,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2079,7 +2082,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,11 +2132,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>49</v>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2162,11 +2165,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>34</v>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2211,14 +2214,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,11 +2231,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>49</v>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2277,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,11 +2297,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -2310,14 +2313,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,11 +2330,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>34</v>
@@ -2343,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2364,7 +2367,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2376,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2409,7 +2412,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2426,11 +2429,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2459,11 +2462,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2492,11 +2495,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2525,11 +2528,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2558,11 +2561,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2591,11 +2594,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2624,11 +2627,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2640,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,11 +2660,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2673,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,11 +2825,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -3043,7 +3046,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,11 +3122,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3324,7 +3327,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3373,7 +3376,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,7 +3386,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3585,7 +3588,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3713,11 +3716,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3736,7 +3739,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3868,7 +3871,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4231,7 +4234,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,11 +4244,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4257,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,11 +4277,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>148</v>
@@ -4290,7 +4293,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4307,11 +4310,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4323,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,11 +4343,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>34</v>
@@ -4356,7 +4359,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4373,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>34</v>
@@ -4389,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4422,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,11 +4442,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4488,7 +4491,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4505,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4521,7 +4524,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4538,11 +4541,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>144</v>
@@ -4554,7 +4557,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4571,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4587,7 +4590,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4604,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>49</v>
@@ -4620,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,11 +4640,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4660,7 +4663,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4686,7 +4689,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4703,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4736,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4752,7 +4755,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4769,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4818,7 +4821,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4835,11 +4838,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4851,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4884,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,11 +4904,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4917,14 +4920,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4938,7 +4941,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -4950,7 +4953,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,11 +5003,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c t="s" r="A113" s="14">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5026,13 +5029,13 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c t="s" r="G113" s="15">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="16"/>
       <c t="s" r="K113" s="17">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -884,6 +884,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -917,10 +920,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 2 August, 2025 9:19 PM</t>
+    <t>Saturday, 2 August, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4776,10 +4776,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4887,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4920,14 +4920,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5003,11 +5003,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>5287.9799999999996</v>
+        <v>5302.9799999999996</v>
       </c>
       <c r="Q112" s="13"/>
     </row>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -203,18 +203,18 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>105.00</t>
   </si>
   <si>
-    <t>34.6500</t>
+    <t>69.3000</t>
   </si>
   <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>69.3000</t>
-  </si>
-  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -260,9 +260,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -695,6 +692,12 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -920,7 +923,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:21 PM</t>
+    <t>Saturday, 2 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1990,7 +1993,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2000,14 +2003,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2016,7 +2019,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>34</v>
@@ -2221,7 +2224,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>49</v>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>34</v>
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>34</v>
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2462,11 +2465,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2478,7 +2481,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2495,11 +2498,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2511,7 +2514,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2594,11 +2597,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2726,11 +2729,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2755,15 +2758,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2788,15 +2791,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2825,11 +2828,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2854,15 +2857,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>49</v>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>34</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3072,7 +3075,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3155,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3283,15 +3286,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,7 +3339,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>34</v>
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3402,7 +3405,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3600,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3666,7 +3669,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3699,7 +3702,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3831,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3848,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>34</v>
@@ -3864,28 +3867,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>34</v>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3976,15 +3979,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3996,28 +3999,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4036,7 +4039,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,31 +4065,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,31 +4098,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4168,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4201,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>34</v>
@@ -4392,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,28 +4428,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4458,28 +4461,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4498,24 +4501,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>273</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,7 +4527,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4537,18 +4540,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>144</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,31 +4593,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,31 +4626,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4663,21 +4666,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4689,28 +4692,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4722,28 +4725,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4755,7 +4758,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4768,18 +4771,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,31 +4791,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4828,21 +4831,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4861,21 +4864,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4894,21 +4897,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4920,31 +4923,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4953,31 +4956,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4993,59 +4996,92 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5302.9799999999996</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>302</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>60</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>132</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>303</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5363.3699999999999</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>304</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>305</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>306</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5579,10 +5615,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:23 PM</t>
+    <t>Saturday, 2 August, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>170.0000</t>
+    <t>255.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -476,6 +476,15 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -830,10 +836,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>40:0</t>
+    <t>45:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -923,7 +926,7 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:24 PM</t>
+    <t>Saturday, 2 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2227,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2241,7 +2244,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -3016,7 +3019,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,11 +3029,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3042,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3066,7 +3069,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3082,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3115,7 +3118,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3181,7 +3184,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3214,7 +3217,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3240,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3273,31 +3276,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,31 +3309,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3339,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3590,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3620,11 +3623,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3636,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3709,7 +3712,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3755,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>34</v>
@@ -3768,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3834,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,24 +3870,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3907,21 +3910,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>34</v>
@@ -3933,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,7 +3953,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3973,7 +3976,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,7 +4002,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4012,15 +4015,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4032,28 +4035,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4065,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4105,13 +4108,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4119,10 +4122,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,31 +4134,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4171,7 +4174,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4230,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4250,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4313,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,11 +4415,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>34</v>
@@ -4428,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4494,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,7 +4563,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>143</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4699,7 +4702,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4725,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4778,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4844,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4864,7 +4867,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4897,7 +4900,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4930,7 +4933,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4943,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,14 +5009,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5029,7 +5032,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,49 +5042,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5363.3699999999999</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>303</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>60</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>132</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>304</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5533.3699999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>305</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>306</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>307</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5620,10 +5656,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -581,6 +581,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -827,9 +833,6 @@
     <t>68:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -924,6 +927,15 @@
   </si>
   <si>
     <t>30.00</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>Saturday, 2 August, 2025 9:25 PM</t>
@@ -3448,7 +3460,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3462,10 +3474,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3745,7 +3757,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,11 +3800,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>34</v>
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,24 +3915,24 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3943,21 +3955,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,7 +3998,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4009,7 +4021,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,7 +4047,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4048,15 +4060,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4068,28 +4080,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4141,13 +4153,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4155,10 +4167,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,31 +4179,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,7 +4219,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,11 +4295,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>34</v>
@@ -4464,31 +4476,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4570,7 +4582,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,7 +4608,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>143</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4735,7 +4747,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>123</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4827,7 +4839,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,14 +4889,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4900,7 +4912,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,11 +4922,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4933,7 +4945,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4966,7 +4978,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5065,7 +5077,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5075,49 +5087,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5533.3699999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>304</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>60</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>132</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>305</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>306</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>196</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>132</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>307</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5598.3699999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>309</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>310</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>311</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5661,10 +5739,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -158,15 +170,6 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -386,6 +389,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -404,6 +416,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
@@ -449,6 +467,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -527,9 +551,6 @@
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -809,9 +830,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -848,7 +866,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -1662,7 +1680,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1761,7 +1779,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1820,11 +1838,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1876,7 +1894,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1909,7 +1927,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2305,7 +2323,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2463,7 +2481,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2480,11 +2498,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2496,7 +2514,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2562,7 +2580,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2760,31 +2778,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,31 +2811,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2859,31 +2877,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,28 +2910,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2958,31 +2976,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3024,31 +3042,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,7 +3257,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3262,7 +3280,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,11 +3290,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3288,7 +3306,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3328,24 +3346,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3453,31 +3471,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3757,7 +3775,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,11 +3785,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3823,7 +3841,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3849,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3889,7 +3907,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,31 +3966,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,31 +4098,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,7 +4197,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4192,15 +4210,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4212,31 +4230,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,11 +4280,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4318,21 +4336,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4445,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4443,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,31 +4527,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,28 +4560,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4575,31 +4593,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>276</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,28 +4692,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4707,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,31 +4791,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,28 +4824,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4839,7 +4857,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4852,18 +4870,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,31 +4890,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,28 +4923,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4938,28 +4956,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4971,28 +4989,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5004,31 +5022,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,31 +5055,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5070,28 +5088,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5103,28 +5121,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5136,66 +5154,198 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>306</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>307</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>138</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>33</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>308</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5598.3699999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c t="s" r="Q116" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>309</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>138</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>182</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>310</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>61</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>138</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>311</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>312</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>203</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>138</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>313</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5833.3699999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>315</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>316</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>317</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5749,10 +5899,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -191,495 +200,477 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>CEFZIM 500MG VIAL</t>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>6:1</t>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
   </si>
   <si>
     <t>38.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -692,6 +683,12 @@
     <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -857,7 +854,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>45:0</t>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>41:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -866,9 +866,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -956,7 +953,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:25 PM</t>
+    <t>Saturday, 2 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,7 +1957,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1977,7 +1974,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1993,7 +1990,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2000,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2019,14 +2016,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2033,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2049,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2066,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2082,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,14 +2099,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2135,14 +2132,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2151,14 +2148,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,14 +2165,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2184,14 +2181,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,14 +2198,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2217,14 +2214,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,14 +2231,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2250,14 +2247,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2267,14 +2264,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2283,14 +2280,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2297,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2316,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2330,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2356,7 +2353,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2366,14 +2363,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2382,14 +2379,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,11 +2396,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>38</v>
@@ -2415,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,14 +2429,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2445,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2481,7 +2478,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2498,11 +2495,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2514,7 +2511,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2531,11 +2528,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2547,7 +2544,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2564,11 +2561,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>38</v>
@@ -2580,7 +2577,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2597,11 +2594,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2613,7 +2610,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2630,11 +2627,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2646,7 +2643,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2663,11 +2660,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2696,11 +2693,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>38</v>
@@ -2712,14 +2709,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,11 +2726,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>38</v>
@@ -2745,7 +2742,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2762,11 +2759,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2778,14 +2775,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,11 +2792,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2828,11 +2825,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>38</v>
@@ -2844,14 +2841,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2877,7 +2874,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2890,15 +2887,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>38</v>
@@ -2910,7 +2907,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2923,15 +2920,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2943,7 +2940,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2960,11 +2957,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2976,7 +2973,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2989,15 +2986,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3009,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,11 +3023,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3042,7 +3039,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3055,15 +3052,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3075,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,11 +3089,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3108,7 +3105,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3125,11 +3122,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>38</v>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3158,11 +3155,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3174,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,11 +3188,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>38</v>
@@ -3207,14 +3204,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,11 +3221,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>38</v>
@@ -3240,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,11 +3254,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3273,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3320,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>38</v>
@@ -3339,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,11 +3386,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3405,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,11 +3419,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3438,31 +3435,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,31 +3468,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3584,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,11 +3683,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3702,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3818,11 +3815,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3834,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,11 +3947,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>38</v>
@@ -3973,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,11 +4013,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4032,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,11 +4046,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4082,11 +4079,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>38</v>
@@ -4098,28 +4095,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>38</v>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4148,11 +4145,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>38</v>
@@ -4164,7 +4161,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4185,7 +4182,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>38</v>
@@ -4197,7 +4194,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4214,11 +4211,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4230,7 +4227,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4243,15 +4240,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4280,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4313,11 +4310,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>38</v>
@@ -4329,7 +4326,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4342,15 +4339,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4383,7 +4380,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>38</v>
@@ -4395,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4409,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4428,7 +4425,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4445,11 +4442,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4461,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4475,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4494,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,11 +4508,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>38</v>
@@ -4527,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4541,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,7 +4557,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4577,11 +4574,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4593,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,11 +4607,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>38</v>
@@ -4626,7 +4623,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4643,11 +4640,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>38</v>
@@ -4659,28 +4656,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4692,28 +4689,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4738,7 +4735,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4758,7 +4755,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4771,15 +4768,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>282</v>
@@ -4804,7 +4801,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4812,10 +4809,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>285</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,28 +4821,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4870,15 +4867,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4890,28 +4887,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4923,28 +4920,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4956,7 +4953,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4969,15 +4966,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4989,7 +4986,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5002,15 +4999,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5022,7 +5019,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5035,15 +5032,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5055,7 +5052,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5068,15 +5065,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5088,28 +5085,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5121,28 +5118,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5154,28 +5151,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5187,20 +5184,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5208,7 +5205,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>32</v>
@@ -5220,7 +5217,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5233,15 +5230,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5253,28 +5250,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5286,28 +5283,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5315,13 +5312,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>5833.3699999999999</v>
+        <v>6184.3699999999999</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5329,13 +5326,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:38 PM</t>
+    <t>Saturday, 2 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -371,6 +371,12 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -755,6 +761,12 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>TRUZYM TAB</t>
   </si>
   <si>
@@ -953,7 +965,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:46 PM</t>
+    <t>Saturday, 2 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,7 +2728,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2881,24 +2893,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,31 +2919,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2940,7 +2952,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2953,15 +2965,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2973,28 +2985,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3006,28 +3018,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3039,24 +3051,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3079,24 +3091,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3145,7 +3157,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3159,10 +3171,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>38</v>
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,11 +3332,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>38</v>
@@ -3343,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3435,31 +3447,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3468,31 +3480,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3607,7 +3619,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3621,10 +3633,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3798,7 +3810,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3904,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3937,7 +3949,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3951,7 +3963,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>38</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4036,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,11 +4058,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4095,24 +4107,24 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4135,21 +4147,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>38</v>
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,7 +4190,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4201,7 +4213,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,7 +4239,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4240,15 +4252,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4260,28 +4272,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4333,13 +4345,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4347,10 +4359,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,28 +4404,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,31 +4668,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,31 +4701,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,28 +4734,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>282</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4795,24 +4807,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,31 +4833,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,7 +4866,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4867,18 +4879,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,28 +4899,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4920,31 +4932,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4953,28 +4965,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4993,21 +5005,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5019,31 +5031,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,28 +5064,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5085,31 +5097,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,28 +5130,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5151,28 +5163,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5184,31 +5196,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5217,28 +5229,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5257,24 +5269,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5283,66 +5295,132 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>313</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6184.3699999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>129</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>138</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>314</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>315</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>200</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>138</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>316</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6325.3699999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>318</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>319</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>320</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5916,10 +5994,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -665,6 +674,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -674,9 +692,6 @@
     <t>PARAMOL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -965,7 +980,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:48 PM</t>
+    <t>Saturday, 2 August, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1687,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1682,11 +1697,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1698,14 +1713,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1715,14 +1730,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1731,14 +1746,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1748,14 +1763,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1764,14 +1779,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1788,7 +1803,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1797,7 +1812,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1814,14 +1829,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1837,7 +1852,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1854,7 +1869,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1870,7 +1885,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1903,7 +1918,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1920,7 +1935,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1929,14 +1944,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1962,14 +1977,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1979,11 +1994,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -2002,7 +2017,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2019,7 +2034,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2035,7 +2050,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2045,14 +2060,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2078,14 +2093,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2144,14 +2159,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2160,7 +2175,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2210,14 +2225,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2233,7 +2248,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2283,7 +2298,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2299,7 +2314,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2313,10 +2328,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2365,7 +2380,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2408,14 +2423,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,7 +2595,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2596,7 +2611,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2613,7 +2628,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2662,7 +2677,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2695,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2712,7 +2727,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2728,7 +2743,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2771,14 +2786,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,7 +2809,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2811,7 +2826,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2827,7 +2842,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2837,11 +2852,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2877,7 +2892,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2893,7 +2908,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,31 +2934,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,20 +2967,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2976,7 +2991,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2998,15 +3013,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3018,28 +3033,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3058,21 +3073,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3084,28 +3099,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3117,31 +3132,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3171,10 +3186,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3215,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3223,7 +3238,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3240,7 +3255,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3256,7 +3271,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3306,7 +3321,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3322,7 +3337,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3487,13 +3502,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3504,7 +3519,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,24 +3535,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3570,7 +3585,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3586,7 +3601,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>193</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3619,7 +3634,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3677,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3685,7 +3700,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3751,7 +3766,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3850,7 +3865,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3916,7 +3931,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,31 +3957,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,7 +4023,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,11 +4106,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4114,7 +4129,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,31 +4155,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4180,7 +4195,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4197,7 +4212,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4213,24 +4228,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,7 +4278,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,24 +4294,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,11 +4337,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4338,31 +4353,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4404,31 +4419,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4444,7 +4459,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4477,21 +4492,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4568,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4576,7 +4591,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4741,24 +4756,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,31 +4782,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,28 +4815,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4833,31 +4848,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>286</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,31 +4881,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4906,24 +4921,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>291</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4945,7 +4960,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4953,10 +4968,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4972,21 +4987,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4998,31 +5013,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,28 +5046,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5064,28 +5079,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5104,24 +5119,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5137,21 +5152,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5163,31 +5178,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,28 +5211,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5229,28 +5244,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5262,31 +5277,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5302,21 +5317,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5328,31 +5343,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5361,66 +5376,132 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6325.3699999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>318</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>132</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>141</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
         <v>319</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>320</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>203</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>141</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>321</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6471.3699999999999</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>323</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>324</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>325</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6085,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:53 PM</t>
+    <t>Saturday, 2 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -665,6 +665,15 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -749,6 +758,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -824,90 +842,90 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8452:0</t>
+    <t>8451:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>68:0</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>68:0</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>41:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -926,12 +944,6 @@
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -980,7 +992,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:55 PM</t>
+    <t>Saturday, 2 August, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3931,7 +3943,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3964,24 +3976,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3997,21 +4009,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>41</v>
@@ -4096,7 +4108,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,7 +4184,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4195,7 +4207,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4212,7 +4224,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4228,21 +4240,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>41</v>
@@ -4254,24 +4266,24 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4294,7 +4306,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,11 +4316,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>41</v>
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4366,7 +4378,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4393,7 +4405,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,11 +4415,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4419,31 +4431,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4473,7 +4485,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4485,31 +4497,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,28 +4563,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,11 +4646,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,7 +4719,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4723,7 +4735,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4773,7 +4785,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4789,7 +4801,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,28 +4827,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4848,31 +4860,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,31 +4893,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4921,7 +4933,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4943,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>291</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,14 +4976,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5013,7 +5025,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5030,14 +5042,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5119,7 +5131,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5251,7 +5263,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5284,7 +5296,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,14 +5306,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,11 +5339,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5350,7 +5362,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5426,11 +5438,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5459,49 +5471,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>321</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>18</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>141</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>182</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>322</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6471.3699999999999</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>132</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>141</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>323</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>324</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>203</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>141</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
         <v>325</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6679.3699999999999</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>327</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>328</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>329</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6095,10 +6206,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -218,528 +218,531 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 312 MG/5ML DRY MIX FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
     <t>20.7900</t>
   </si>
   <si>
@@ -752,12 +755,6 @@
     <t>11.4500</t>
   </si>
   <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -767,6 +764,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -992,7 +998,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 9:58 PM</t>
+    <t>Saturday, 2 August, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2161,7 +2167,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2171,14 +2177,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2187,7 +2193,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2208,7 +2214,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>41</v>
@@ -3656,7 +3662,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -4273,7 +4279,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4287,7 +4293,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>41</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4316,11 +4322,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>41</v>
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,7 +4404,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4431,7 +4437,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4464,7 +4470,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4481,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4497,7 +4503,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4514,7 +4520,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4530,7 +4536,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4547,7 +4553,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4563,7 +4569,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4596,7 +4602,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4617,7 +4623,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>41</v>
@@ -4629,7 +4635,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4662,7 +4668,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,11 +4718,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>132</v>
@@ -4794,7 +4800,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4827,7 +4833,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4860,7 +4866,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>41</v>
@@ -4893,7 +4899,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4914,7 +4920,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>41</v>
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4992,7 +4998,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5025,7 +5031,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,7 +5064,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5075,7 +5081,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5091,7 +5097,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5124,7 +5130,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5141,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>26</v>
@@ -5157,7 +5163,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5244,7 +5250,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5256,7 +5262,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5273,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5289,7 +5295,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5310,7 +5316,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5322,7 +5328,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5355,7 +5361,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5388,7 +5394,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5454,14 +5460,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>35</v>
@@ -5487,7 +5493,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5520,7 +5526,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5537,11 +5543,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5553,7 +5559,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5570,11 +5576,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5582,13 +5588,13 @@
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="P127" s="13">
-        <v>6679.3699999999999</v>
+        <v>6643.7299999999996</v>
       </c>
       <c r="Q127" s="13"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c t="s" r="A128" s="14">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5596,13 +5602,13 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c t="s" r="G128" s="15">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
       <c t="s" r="K128" s="17">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -392,418 +401,439 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCIDIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-34.6500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>TEDDIFLY SYRUP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCIDIN 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GRODESIRE SYRUP</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>LIPOFERRIC FOLIC 30 SACHETS</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-34.6500</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OCTOVENT 4MG C.R. 20 TAB</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>OFRAMAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 3/25 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>11.4500</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>TEDDIFLY SYRUP</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRIBATENS 20/5/12.5MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
   </si>
   <si>
     <t>TRUZYM TAB</t>
@@ -2332,7 +2362,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2365,7 +2395,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2379,10 +2409,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2431,7 +2461,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,11 +2537,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>41</v>
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2563,7 +2593,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2646,7 +2676,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2662,7 +2692,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2679,7 +2709,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2728,7 +2758,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2761,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2778,7 +2808,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2794,7 +2824,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2860,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2877,7 +2907,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2893,7 +2923,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,11 +2933,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2943,7 +2973,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2959,7 +2989,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,14 +2999,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,31 +3015,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3018,20 +3048,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3042,7 +3072,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,15 +3094,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3084,28 +3114,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3124,21 +3154,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3150,28 +3180,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3183,31 +3213,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3237,10 +3267,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3289,7 +3319,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3306,7 +3336,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,11 +3362,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>41</v>
@@ -3348,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3372,7 +3402,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3388,7 +3418,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3398,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>41</v>
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3480,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,11 +3527,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3553,13 +3583,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3570,7 +3600,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3586,24 +3616,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3636,7 +3666,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3652,7 +3682,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3685,7 +3715,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3751,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3817,7 +3847,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,11 +3890,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,11 +3956,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,28 +4038,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4074,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>41</v>
@@ -4107,31 +4137,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,11 +4187,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,31 +4302,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,24 +4401,24 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4428,7 +4458,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4450,7 +4480,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4477,7 +4507,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,7 +4566,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4549,15 +4579,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4569,28 +4599,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4602,7 +4632,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4619,11 +4649,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>41</v>
@@ -4635,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4668,7 +4698,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4681,15 +4711,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4701,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4807,7 +4837,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,11 +4847,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4833,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4880,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4899,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,28 +4962,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4965,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,28 +5127,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5130,7 +5160,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5143,18 +5173,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5163,31 +5193,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5196,28 +5226,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5229,31 +5259,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,28 +5292,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5295,31 +5325,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,28 +5358,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5361,28 +5391,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5394,31 +5424,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5427,28 +5457,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5460,31 +5490,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5493,28 +5523,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5526,28 +5556,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5559,66 +5589,165 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6643.7299999999996</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>329</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>330</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>331</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>333</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>18</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>144</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>185</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>135</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>144</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>335</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>206</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>144</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>337</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7008.3500000000004</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>339</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>340</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>341</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6227,10 +6356,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -1028,7 +1028,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:09 PM</t>
+    <t>Saturday, 2 August, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-02_00-00.xlsx
+++ b/DaySale_2025-08-02_00-00.xlsx
@@ -527,6 +527,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -926,6 +935,12 @@
     <t>68:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -941,9 +956,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -1001,6 +1013,12 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1028,7 +1046,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 10:12 PM</t>
+    <t>Saturday, 2 August, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3385,7 +3403,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3435,7 +3453,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3451,7 +3469,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</